--- a/1258/1258-tesctase.xlsx
+++ b/1258/1258-tesctase.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -123,12 +124,15 @@
   <si>
     <t>Không hiển thị hình</t>
   </si>
+  <si>
+    <t>hinh1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +145,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,10 +171,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,8 +189,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -192,6 +208,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>246162</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="400050"/>
+          <a:ext cx="11904762" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,7 +519,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -540,7 +599,9 @@
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -573,7 +634,9 @@
       <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -606,7 +669,9 @@
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -639,7 +704,9 @@
       <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1058,6 +1125,33 @@
       <c r="K37" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" location="Sheet2!A2" display="hinh1"/>
+    <hyperlink ref="K3" location="Sheet2!A2" display="hinh1"/>
+    <hyperlink ref="K4" location="Sheet2!A2" display="hinh1"/>
+    <hyperlink ref="K5" location="Sheet2!A2" display="hinh1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>